--- a/Results/NEW_periods/Post Breeding/Female/meta_analysis_treatment_vs_control.xlsx
+++ b/Results/NEW_periods/Post Breeding/Female/meta_analysis_treatment_vs_control.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,13 +394,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>47.95387051152114</v>
+        <v>47.95386330054102</v>
       </c>
       <c r="C3">
-        <v>68.68625576959936</v>
+        <v>68.68627188929486</v>
       </c>
       <c r="D3">
-        <v>95.36966871918277</v>
+        <v>95.369720161072</v>
       </c>
     </row>
     <row r="4">
@@ -410,13 +410,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2527850998228794</v>
+        <v>0.2527851075605463</v>
       </c>
       <c r="C4">
-        <v>0.6108096098681867</v>
+        <v>0.6108104510183635</v>
       </c>
       <c r="D4">
-        <v>1.124038161516654</v>
+        <v>1.124040433708165</v>
       </c>
     </row>
     <row r="5">
@@ -426,13 +426,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5112236250473102</v>
+        <v>0.5112236538172655</v>
       </c>
       <c r="C5">
-        <v>0.794672364934557</v>
+        <v>0.7946729446679957</v>
       </c>
       <c r="D5">
-        <v>1.078017243965281</v>
+        <v>1.078018377714276</v>
       </c>
     </row>
     <row r="6">
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>25.58427221966958</v>
+        <v>25.58427801821301</v>
       </c>
       <c r="C7">
-        <v>33.00187091702899</v>
+        <v>33.00187053526607</v>
       </c>
       <c r="D7">
-        <v>41.90139302558724</v>
+        <v>41.90138377028548</v>
       </c>
     </row>
     <row r="8">
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1415848079219207</v>
+        <v>0.141584780786417</v>
       </c>
       <c r="C8">
-        <v>0.3176979132481556</v>
+        <v>0.3176973392150501</v>
       </c>
       <c r="D8">
-        <v>0.5637621937013732</v>
+        <v>0.5637607160423127</v>
       </c>
     </row>
     <row r="9">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.3817532067474922</v>
+        <v>0.3817531520970565</v>
       </c>
       <c r="C9">
-        <v>0.5718492383103663</v>
+        <v>0.5718486946218007</v>
       </c>
       <c r="D9">
-        <v>0.7617673246908883</v>
+        <v>0.761766290314822</v>
       </c>
     </row>
     <row r="10">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>6.061410335014984</v>
+        <v>6.061409997655358</v>
       </c>
       <c r="C11">
-        <v>7.781825951627817</v>
+        <v>7.781825747199078</v>
       </c>
       <c r="D11">
-        <v>9.831330974982844</v>
+        <v>9.831330985074656</v>
       </c>
     </row>
     <row r="12">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.1215314382585826</v>
+        <v>0.1215314443590003</v>
       </c>
       <c r="C12">
-        <v>0.2870769644580188</v>
+        <v>0.2870770677167396</v>
       </c>
       <c r="D12">
-        <v>0.5225468180835303</v>
+        <v>0.522547084660171</v>
       </c>
     </row>
     <row r="13">
@@ -536,13 +536,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.3542269004624097</v>
+        <v>0.3542269126528542</v>
       </c>
       <c r="C13">
-        <v>0.5444229104169508</v>
+        <v>0.5444230134005977</v>
       </c>
       <c r="D13">
-        <v>0.7345135704911113</v>
+        <v>0.7345137646895203</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.755598496599259</v>
+      </c>
+      <c r="C15">
+        <v>4.279469245805568</v>
+      </c>
+      <c r="D15">
+        <v>4.854255501286414</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.03044058476455233</v>
+      </c>
+      <c r="C16">
+        <v>0.0720474140677756</v>
+      </c>
+      <c r="D16">
+        <v>0.1312686343552456</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.1772921414248258</v>
+      </c>
+      <c r="C17">
+        <v>0.2727546661584492</v>
+      </c>
+      <c r="D17">
+        <v>0.3681658259272592</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,13 +649,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>47.40142642388275</v>
+        <v>47.40142530497118</v>
       </c>
       <c r="C3">
-        <v>61.04119292217266</v>
+        <v>61.04119260577004</v>
       </c>
       <c r="D3">
-        <v>77.35187389791038</v>
+        <v>77.3518747829873</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +665,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1042337622546049</v>
+        <v>0.1042337617494806</v>
       </c>
       <c r="C4">
-        <v>0.257316193506426</v>
+        <v>0.2573162396158124</v>
       </c>
       <c r="D4">
-        <v>0.478367821809585</v>
+        <v>0.4783679490412392</v>
       </c>
     </row>
     <row r="5">
@@ -626,13 +681,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3284913128054576</v>
+        <v>0.3284913138669584</v>
       </c>
       <c r="C5">
-        <v>0.5161230334280845</v>
+        <v>0.5161230825894327</v>
       </c>
       <c r="D5">
-        <v>0.703721243125175</v>
+        <v>0.7037213406888364</v>
       </c>
     </row>
     <row r="6">
@@ -649,13 +704,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>20.83789832011868</v>
+        <v>20.83790116894635</v>
       </c>
       <c r="C7">
-        <v>24.23105464044965</v>
+        <v>24.23105480801949</v>
       </c>
       <c r="D7">
-        <v>28.01426846488378</v>
+        <v>28.01426528797305</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +720,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.04076051099825974</v>
+        <v>0.04076051037919635</v>
       </c>
       <c r="C8">
-        <v>0.09547673849335821</v>
+        <v>0.09547657165538789</v>
       </c>
       <c r="D8">
-        <v>0.1730788195118637</v>
+        <v>0.1730783704576971</v>
       </c>
     </row>
     <row r="9">
@@ -681,13 +736,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2050913464410096</v>
+        <v>0.2050913342341457</v>
       </c>
       <c r="C9">
-        <v>0.3138891570885896</v>
+        <v>0.313888866541604</v>
       </c>
       <c r="D9">
-        <v>0.4226194578039277</v>
+        <v>0.4226188876144621</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +759,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>6.00585893958282</v>
+        <v>6.005858961625194</v>
       </c>
       <c r="C11">
-        <v>7.502472470799327</v>
+        <v>7.50247256957072</v>
       </c>
       <c r="D11">
-        <v>9.252154330228255</v>
+        <v>9.252154526807171</v>
       </c>
     </row>
     <row r="12">
@@ -720,13 +775,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.07707815543854073</v>
+        <v>0.07707815635301282</v>
       </c>
       <c r="C12">
-        <v>0.1938706057179818</v>
+        <v>0.1938706148657898</v>
       </c>
       <c r="D12">
-        <v>0.3635900179035235</v>
+        <v>0.3635900410378016</v>
       </c>
     </row>
     <row r="13">
@@ -736,13 +791,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.2826414758073472</v>
+        <v>0.2826414777932059</v>
       </c>
       <c r="C13">
-        <v>0.4482561112671808</v>
+        <v>0.4482561223330648</v>
       </c>
       <c r="D13">
-        <v>0.613869719473269</v>
+        <v>0.6138697396742772</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>4.07320227638991</v>
+      </c>
+      <c r="C15">
+        <v>4.529512508635405</v>
+      </c>
+      <c r="D15">
+        <v>5.020665245218014</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.01528047553391492</v>
+      </c>
+      <c r="C16">
+        <v>0.04138428929724018</v>
+      </c>
+      <c r="D16">
+        <v>0.08026366661400237</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.126138626415766</v>
+      </c>
+      <c r="C17">
+        <v>0.207585690593424</v>
+      </c>
+      <c r="D17">
+        <v>0.2890940545743764</v>
       </c>
     </row>
   </sheetData>
